--- a/data/metadata/Informe-01-080101-010103-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-080101-010103-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>ccaa-nombre</t>
   </si>
@@ -76,54 +76,51 @@
     <t>iaest-dimension:ccaa-nombre</t>
   </si>
   <si>
-    <t>iaest-dimension:medidas-aumento-valor-anadido</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ayudas-natura-2000</t>
-  </si>
-  <si>
-    <t>iaest-dimension:pagos-otras-ayudas</t>
+    <t>iaest-measure:medidas-aumento-valor-anadido</t>
+  </si>
+  <si>
+    <t>iaest-measure:ayudas-natura-2000</t>
+  </si>
+  <si>
+    <t>iaest-measure:pagos-otras-ayudas</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>iaest-dimension:medidas-modernizacion</t>
-  </si>
-  <si>
-    <t>iaest-dimension:diversificacion-actividades-no-agricolas</t>
-  </si>
-  <si>
-    <t>iaest-dimension:medidas-asesoramiento</t>
-  </si>
-  <si>
-    <t>iaest-measure:municipio-nombre</t>
-  </si>
-  <si>
-    <t>iaest-dimension:pagos-agricultura-ecologica</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ayudas-relativas-bienestar-animales</t>
-  </si>
-  <si>
-    <t>iaest-dimension:medidas-marco-del-agua</t>
-  </si>
-  <si>
-    <t>iaest-dimension:medidas-cumplimiento-normas</t>
-  </si>
-  <si>
-    <t>iaest-dimension:fomento-actividades-turisticas</t>
-  </si>
-  <si>
-    <t>iaest-dimension:medidas-participacion-programas-calidad</t>
+    <t>iaest-measure:medidas-modernizacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:diversificacion-actividades-no-agricolas</t>
+  </si>
+  <si>
+    <t>iaest-measure:medidas-asesoramiento</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:pagos-agricultura-ecologica</t>
+  </si>
+  <si>
+    <t>iaest-measure:ayudas-relativas-bienestar-animales</t>
+  </si>
+  <si>
+    <t>iaest-measure:medidas-marco-del-agua</t>
+  </si>
+  <si>
+    <t>iaest-measure:medidas-cumplimiento-normas</t>
+  </si>
+  <si>
+    <t>iaest-measure:fomento-actividades-turisticas</t>
+  </si>
+  <si>
+    <t>iaest-measure:medidas-participacion-programas-calidad</t>
   </si>
   <si>
     <t>iaest-measure:identificador</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>dim</t>
   </si>
   <si>
@@ -136,46 +133,13 @@
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
     <t>URI-comarca</t>
   </si>
   <si>
     <t>mapping-ccaa-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-medidas-aumento-valor-anadido.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-ayudas-natura-2000.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-pagos-otras-ayudas.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-medidas-modernizacion.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-diversificacion-actividades-no-agricolas.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-medidas-asesoramiento.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-pagos-agricultura-ecologica.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-ayudas-relativas-bienestar-animales.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-medidas-marco-del-agua.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-medidas-cumplimiento-normas.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-fomento-actividades-turisticas.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-medidas-participacion-programas-calidad.xlsx</t>
   </si>
 </sst>
 </file>
@@ -356,12 +320,12 @@
         <v>35</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>37</v>
@@ -394,7 +358,7 @@
         <v>37</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>37</v>
@@ -415,15 +379,15 @@
         <v>37</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>39</v>
@@ -477,7 +441,7 @@
         <v>39</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>41</v>
@@ -486,42 +450,6 @@
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-080101-010103-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-080101-010103-A-TC-TM-TP.xlsx
@@ -11,123 +11,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>medidas-aumento-valor-anadido</t>
-  </si>
-  <si>
-    <t>ayudas-natura-2000</t>
-  </si>
-  <si>
-    <t>pagos-otras-ayudas</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>medidas-modernizacion</t>
-  </si>
-  <si>
-    <t>diversificacion-actividades-no-agricolas</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>medidas-asesoramiento</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>pagos-agricultura-ecologica</t>
-  </si>
-  <si>
-    <t>ayudas-relativas-bienestar-animales</t>
-  </si>
-  <si>
-    <t>medidas-marco-del-agua</t>
-  </si>
-  <si>
-    <t>medidas-cumplimiento-normas</t>
-  </si>
-  <si>
-    <t>fomento-actividades-turisticas</t>
-  </si>
-  <si>
-    <t>medidas-participacion-programas-calidad</t>
-  </si>
-  <si>
-    <t>identificador</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Medidas marco del agua</t>
+  </si>
+  <si>
+    <t>Provincia codigo</t>
+  </si>
+  <si>
+    <t>Pagos otras ayudas</t>
+  </si>
+  <si>
+    <t>Medidas cumplimiento normas</t>
+  </si>
+  <si>
+    <t>Pagos agricultura ecológica</t>
+  </si>
+  <si>
+    <t>Medidas modernización</t>
+  </si>
+  <si>
+    <t>Medidas asesoramiento</t>
+  </si>
+  <si>
+    <t>Medidas participación programas calidad</t>
+  </si>
+  <si>
+    <t>Comarca codigo</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>Ayudas relativas bienestar animales</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Ayudas Natura 2000</t>
+  </si>
+  <si>
+    <t>Medidas aumento valor añadido</t>
+  </si>
+  <si>
+    <t>Fomento actividades turísticas</t>
+  </si>
+  <si>
+    <t>CCAA código</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>Diversificación actividades no agrícolas</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:medidas-marco-del-agua</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:pagos-otras-ayudas</t>
+  </si>
+  <si>
+    <t>iaest-measure:medidas-cumplimiento-normas</t>
+  </si>
+  <si>
+    <t>iaest-measure:pagos-agricultura-ecologica</t>
+  </si>
+  <si>
+    <t>iaest-measure:medidas-modernizacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:medidas-asesoramiento</t>
+  </si>
+  <si>
+    <t>iaest-measure:medidas-participacion-programas-calidad</t>
+  </si>
+  <si>
+    <t>iaest-measure:ayudas-relativas-bienestar-animales</t>
+  </si>
+  <si>
+    <t>iaest-measure:ayudas-natura-2000</t>
   </si>
   <si>
     <t>iaest-measure:medidas-aumento-valor-anadido</t>
   </si>
   <si>
-    <t>iaest-measure:ayudas-natura-2000</t>
-  </si>
-  <si>
-    <t>iaest-measure:pagos-otras-ayudas</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-measure:medidas-modernizacion</t>
+    <t>iaest-measure:fomento-actividades-turisticas</t>
+  </si>
+  <si>
+    <t>iaest-measure:identificador</t>
   </si>
   <si>
     <t>iaest-measure:diversificacion-actividades-no-agricolas</t>
   </si>
   <si>
-    <t>iaest-measure:medidas-asesoramiento</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:pagos-agricultura-ecologica</t>
-  </si>
-  <si>
-    <t>iaest-measure:ayudas-relativas-bienestar-animales</t>
-  </si>
-  <si>
-    <t>iaest-measure:medidas-marco-del-agua</t>
-  </si>
-  <si>
-    <t>iaest-measure:medidas-cumplimiento-normas</t>
-  </si>
-  <si>
-    <t>iaest-measure:fomento-actividades-turisticas</t>
-  </si>
-  <si>
-    <t>iaest-measure:medidas-participacion-programas-calidad</t>
-  </si>
-  <si>
-    <t>iaest-measure:identificador</t>
-  </si>
-  <si>
     <t>dim</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>URI-Comunidad</t>
   </si>
   <si>
     <t>xsd:int</t>
@@ -137,9 +134,6 @@
   </si>
   <si>
     <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
   </si>
 </sst>
 </file>
@@ -284,22 +278,22 @@
         <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>30</v>
@@ -311,145 +305,122 @@
         <v>32</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
